--- a/Document/진로현황사진/DEBA_개인정보_진로현황.xlsx
+++ b/Document/진로현황사진/DEBA_개인정보_진로현황.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataScience\[DEBA]\Document\진로현황사진\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B3C171F-7398-4ADB-9013-C0EAFB21212B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D632714B-9663-4F1B-B851-96B3DB58A8B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24098" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$I$14</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
@@ -247,6 +250,7 @@
   </si>
   <si>
     <t>jun010914@naver.com</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -376,12 +380,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
@@ -404,8 +405,10 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -624,9 +627,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomLeft" activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -647,347 +650,347 @@
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="3"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" customHeight="1"/>
     <row r="3" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="30.75" customHeight="1">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <v>201800875</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7" t="s">
+      <c r="F4" s="6"/>
+      <c r="G4" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>201900884</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7" t="s">
+      <c r="F5" s="6"/>
+      <c r="G5" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="8" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <v>202100790</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7" t="s">
+      <c r="F6" s="6"/>
+      <c r="G6" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <v>202100794</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7" t="s">
+      <c r="F7" s="6"/>
+      <c r="G7" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>201900833</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="I8" s="8" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>202200803</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>202201788</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="7" t="s">
+      <c r="F10" s="5"/>
+      <c r="G10" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="I10" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <v>202300502</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="I11" s="8" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <v>202300733</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="7" t="s">
+      <c r="F12" s="5"/>
+      <c r="G12" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="I12" s="9" t="s">
+      <c r="I12" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="5">
         <v>202300811</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="H13" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="I13" s="9" t="s">
+      <c r="I13" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="5">
         <v>202202884</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="14"/>
-      <c r="G14" s="7" t="s">
+      <c r="F14" s="12"/>
+      <c r="G14" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="H14" s="14" t="s">
+      <c r="H14" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="I14" s="14" t="s">
+      <c r="I14" s="8" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1979,6 +1982,12 @@
     <row r="1000" ht="16.5" customHeight="1"/>
     <row r="1001" ht="16.5" customHeight="1"/>
   </sheetData>
+  <autoFilter ref="A3:I14" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:I14">
+      <sortCondition ref="A4:A14"/>
+      <sortCondition ref="D4:D14"/>
+    </sortState>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="B1:F1"/>
   </mergeCells>
@@ -1993,6 +2002,7 @@
     <hyperlink ref="I10" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
     <hyperlink ref="I12" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
     <hyperlink ref="I13" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="I14" r:id="rId10" xr:uid="{D6E4B2AA-D554-41F8-B529-9CF40F62EC88}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
